--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3469.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3469.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.116816056254845</v>
+        <v>0.9016587138175964</v>
       </c>
       <c r="B1">
-        <v>1.424034647930505</v>
+        <v>1.403303265571594</v>
       </c>
       <c r="C1">
-        <v>2.092251619263237</v>
+        <v>4.817044258117676</v>
       </c>
       <c r="D1">
-        <v>7.132329620060056</v>
+        <v>3.018893241882324</v>
       </c>
       <c r="E1">
-        <v>4.283676493369112</v>
+        <v>0.4381093680858612</v>
       </c>
     </row>
   </sheetData>
